--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/17.Lô 5-2023/100TB_TG102LE-4G-ESIM_150124.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/17.Lô 5-2023/100TB_TG102LE-4G-ESIM_150124.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545" activeTab="1"/>
+    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -177,156 +177,6 @@
     <t>006080056232601</t>
   </si>
   <si>
-    <t>89840200011500071541</t>
-  </si>
-  <si>
-    <t>89840200011500071434</t>
-  </si>
-  <si>
-    <t>89840200011500071228</t>
-  </si>
-  <si>
-    <t>89840200011500071426</t>
-  </si>
-  <si>
-    <t>89840200011500071533</t>
-  </si>
-  <si>
-    <t>89840200011500071780</t>
-  </si>
-  <si>
-    <t>89840200011500071467</t>
-  </si>
-  <si>
-    <t>89840200011500071558</t>
-  </si>
-  <si>
-    <t>89840200011500071566</t>
-  </si>
-  <si>
-    <t>89840200011500071756</t>
-  </si>
-  <si>
-    <t>89840200011500071442</t>
-  </si>
-  <si>
-    <t>89840200011500071376</t>
-  </si>
-  <si>
-    <t>89840200011500070972</t>
-  </si>
-  <si>
-    <t>89840200011500071012</t>
-  </si>
-  <si>
-    <t>89840200011500071574</t>
-  </si>
-  <si>
-    <t>89840200011500071400</t>
-  </si>
-  <si>
-    <t>89840200011500071053</t>
-  </si>
-  <si>
-    <t>89840200011500071418</t>
-  </si>
-  <si>
-    <t>89840200011500071293</t>
-  </si>
-  <si>
-    <t>89840200011500071251</t>
-  </si>
-  <si>
-    <t>89840200011500070923</t>
-  </si>
-  <si>
-    <t>89840200011500071764</t>
-  </si>
-  <si>
-    <t>89840200011500071715</t>
-  </si>
-  <si>
-    <t>89840200011500071327</t>
-  </si>
-  <si>
-    <t>89840200011500071285</t>
-  </si>
-  <si>
-    <t>89840200011500071194</t>
-  </si>
-  <si>
-    <t>89840200011500071475</t>
-  </si>
-  <si>
-    <t>89840200011500071707</t>
-  </si>
-  <si>
-    <t>89840200011500071491</t>
-  </si>
-  <si>
-    <t>89840200011500071384</t>
-  </si>
-  <si>
-    <t>89840200011500071731</t>
-  </si>
-  <si>
-    <t>89840200011500071509</t>
-  </si>
-  <si>
-    <t>89840200011500071277</t>
-  </si>
-  <si>
-    <t>89840200011500071301</t>
-  </si>
-  <si>
-    <t>89840200011500070790</t>
-  </si>
-  <si>
-    <t>89840200011500071202</t>
-  </si>
-  <si>
-    <t>89840200011500071269</t>
-  </si>
-  <si>
-    <t>89840200011500071749</t>
-  </si>
-  <si>
-    <t>89840200011500071392</t>
-  </si>
-  <si>
-    <t>89840200011500071335</t>
-  </si>
-  <si>
-    <t>89840200011500071632</t>
-  </si>
-  <si>
-    <t>89840200011500071145</t>
-  </si>
-  <si>
-    <t>89840200011500071459</t>
-  </si>
-  <si>
-    <t>89840200011500071723</t>
-  </si>
-  <si>
-    <t>89840200011500071350</t>
-  </si>
-  <si>
-    <t>89840200011500071368</t>
-  </si>
-  <si>
-    <t>89840200011500071772</t>
-  </si>
-  <si>
-    <t>89840200011500071244</t>
-  </si>
-  <si>
-    <t>89840200011500071483</t>
-  </si>
-  <si>
-    <t>89840200011500071699</t>
-  </si>
-  <si>
     <t>IMEI</t>
   </si>
   <si>
@@ -483,154 +333,304 @@
     <t>006080056261220</t>
   </si>
   <si>
-    <t>89840200011500071657</t>
-  </si>
-  <si>
-    <t>89840200011500070931</t>
-  </si>
-  <si>
-    <t>89840200011500071681</t>
-  </si>
-  <si>
-    <t>89840200011500070998</t>
-  </si>
-  <si>
-    <t>89840200011500071046</t>
-  </si>
-  <si>
-    <t>89840200011500070865</t>
-  </si>
-  <si>
-    <t>89840200011500071582</t>
-  </si>
-  <si>
-    <t>89840200011500071517</t>
-  </si>
-  <si>
-    <t>89840200011500070881</t>
-  </si>
-  <si>
-    <t>89840200011500071038</t>
-  </si>
-  <si>
-    <t>89840200011500070956</t>
-  </si>
-  <si>
-    <t>89840200011500071152</t>
-  </si>
-  <si>
-    <t>89840200011500071061</t>
-  </si>
-  <si>
-    <t>89840200011500070808</t>
-  </si>
-  <si>
-    <t>89840200011500071178</t>
-  </si>
-  <si>
-    <t>89840200011500071020</t>
-  </si>
-  <si>
-    <t>89840200011500071319</t>
-  </si>
-  <si>
-    <t>89840200011500070980</t>
-  </si>
-  <si>
-    <t>89840200011500071004</t>
-  </si>
-  <si>
-    <t>89840200011500071210</t>
-  </si>
-  <si>
-    <t>89840200011500071640</t>
-  </si>
-  <si>
-    <t>89840200011500071111</t>
-  </si>
-  <si>
-    <t>89840200011500070824</t>
-  </si>
-  <si>
-    <t>89840200011500071103</t>
-  </si>
-  <si>
-    <t>89840200011500070873</t>
-  </si>
-  <si>
-    <t>89840200011500071624</t>
-  </si>
-  <si>
-    <t>89840200011500071525</t>
-  </si>
-  <si>
-    <t>89840200011500071137</t>
-  </si>
-  <si>
-    <t>89840200011500071673</t>
-  </si>
-  <si>
-    <t>89840200011500071590</t>
-  </si>
-  <si>
-    <t>89840200011500071665</t>
-  </si>
-  <si>
-    <t>89840200011500070907</t>
-  </si>
-  <si>
-    <t>89840200011500071608</t>
-  </si>
-  <si>
-    <t>89840200011500070949</t>
-  </si>
-  <si>
-    <t>89840200011500071160</t>
-  </si>
-  <si>
-    <t>89840200011500070857</t>
-  </si>
-  <si>
-    <t>89840200011500071079</t>
-  </si>
-  <si>
-    <t>89840200011500070964</t>
-  </si>
-  <si>
-    <t>89840200011500071087</t>
-  </si>
-  <si>
-    <t>89840200011500071343</t>
-  </si>
-  <si>
-    <t>89840200011500070832</t>
-  </si>
-  <si>
-    <t>89840200011500070915</t>
-  </si>
-  <si>
-    <t>89840200011500071186</t>
-  </si>
-  <si>
-    <t>89840200011500071129</t>
-  </si>
-  <si>
-    <t>89840200011500071095</t>
-  </si>
-  <si>
-    <t>89840200011500071236</t>
-  </si>
-  <si>
-    <t>89840200011500071616</t>
-  </si>
-  <si>
-    <t>89840200011500070840</t>
-  </si>
-  <si>
-    <t>89840200011500070899</t>
-  </si>
-  <si>
-    <t>89840200011500070816</t>
+    <t>8984020001150007165</t>
+  </si>
+  <si>
+    <t>8984020001150007093</t>
+  </si>
+  <si>
+    <t>8984020001150007168</t>
+  </si>
+  <si>
+    <t>8984020001150007099</t>
+  </si>
+  <si>
+    <t>8984020001150007104</t>
+  </si>
+  <si>
+    <t>8984020001150007086</t>
+  </si>
+  <si>
+    <t>8984020001150007158</t>
+  </si>
+  <si>
+    <t>8984020001150007151</t>
+  </si>
+  <si>
+    <t>8984020001150007088</t>
+  </si>
+  <si>
+    <t>8984020001150007103</t>
+  </si>
+  <si>
+    <t>8984020001150007095</t>
+  </si>
+  <si>
+    <t>8984020001150007115</t>
+  </si>
+  <si>
+    <t>8984020001150007106</t>
+  </si>
+  <si>
+    <t>8984020001150007080</t>
+  </si>
+  <si>
+    <t>8984020001150007117</t>
+  </si>
+  <si>
+    <t>8984020001150007102</t>
+  </si>
+  <si>
+    <t>8984020001150007131</t>
+  </si>
+  <si>
+    <t>8984020001150007098</t>
+  </si>
+  <si>
+    <t>8984020001150007100</t>
+  </si>
+  <si>
+    <t>8984020001150007121</t>
+  </si>
+  <si>
+    <t>8984020001150007164</t>
+  </si>
+  <si>
+    <t>8984020001150007111</t>
+  </si>
+  <si>
+    <t>8984020001150007082</t>
+  </si>
+  <si>
+    <t>8984020001150007110</t>
+  </si>
+  <si>
+    <t>8984020001150007087</t>
+  </si>
+  <si>
+    <t>8984020001150007162</t>
+  </si>
+  <si>
+    <t>8984020001150007152</t>
+  </si>
+  <si>
+    <t>8984020001150007113</t>
+  </si>
+  <si>
+    <t>8984020001150007167</t>
+  </si>
+  <si>
+    <t>8984020001150007159</t>
+  </si>
+  <si>
+    <t>8984020001150007166</t>
+  </si>
+  <si>
+    <t>8984020001150007090</t>
+  </si>
+  <si>
+    <t>8984020001150007160</t>
+  </si>
+  <si>
+    <t>8984020001150007094</t>
+  </si>
+  <si>
+    <t>8984020001150007116</t>
+  </si>
+  <si>
+    <t>8984020001150007085</t>
+  </si>
+  <si>
+    <t>8984020001150007107</t>
+  </si>
+  <si>
+    <t>8984020001150007096</t>
+  </si>
+  <si>
+    <t>8984020001150007108</t>
+  </si>
+  <si>
+    <t>8984020001150007134</t>
+  </si>
+  <si>
+    <t>8984020001150007083</t>
+  </si>
+  <si>
+    <t>8984020001150007091</t>
+  </si>
+  <si>
+    <t>8984020001150007118</t>
+  </si>
+  <si>
+    <t>8984020001150007112</t>
+  </si>
+  <si>
+    <t>8984020001150007109</t>
+  </si>
+  <si>
+    <t>8984020001150007123</t>
+  </si>
+  <si>
+    <t>8984020001150007161</t>
+  </si>
+  <si>
+    <t>8984020001150007084</t>
+  </si>
+  <si>
+    <t>8984020001150007089</t>
+  </si>
+  <si>
+    <t>8984020001150007081</t>
+  </si>
+  <si>
+    <t>8984020001150007154</t>
+  </si>
+  <si>
+    <t>8984020001150007143</t>
+  </si>
+  <si>
+    <t>8984020001150007122</t>
+  </si>
+  <si>
+    <t>8984020001150007142</t>
+  </si>
+  <si>
+    <t>8984020001150007153</t>
+  </si>
+  <si>
+    <t>8984020001150007178</t>
+  </si>
+  <si>
+    <t>8984020001150007146</t>
+  </si>
+  <si>
+    <t>8984020001150007155</t>
+  </si>
+  <si>
+    <t>8984020001150007156</t>
+  </si>
+  <si>
+    <t>8984020001150007175</t>
+  </si>
+  <si>
+    <t>8984020001150007144</t>
+  </si>
+  <si>
+    <t>8984020001150007137</t>
+  </si>
+  <si>
+    <t>8984020001150007097</t>
+  </si>
+  <si>
+    <t>8984020001150007101</t>
+  </si>
+  <si>
+    <t>8984020001150007157</t>
+  </si>
+  <si>
+    <t>8984020001150007140</t>
+  </si>
+  <si>
+    <t>8984020001150007105</t>
+  </si>
+  <si>
+    <t>8984020001150007141</t>
+  </si>
+  <si>
+    <t>8984020001150007129</t>
+  </si>
+  <si>
+    <t>8984020001150007125</t>
+  </si>
+  <si>
+    <t>8984020001150007092</t>
+  </si>
+  <si>
+    <t>8984020001150007176</t>
+  </si>
+  <si>
+    <t>8984020001150007171</t>
+  </si>
+  <si>
+    <t>8984020001150007132</t>
+  </si>
+  <si>
+    <t>8984020001150007128</t>
+  </si>
+  <si>
+    <t>8984020001150007119</t>
+  </si>
+  <si>
+    <t>8984020001150007147</t>
+  </si>
+  <si>
+    <t>8984020001150007170</t>
+  </si>
+  <si>
+    <t>8984020001150007149</t>
+  </si>
+  <si>
+    <t>8984020001150007138</t>
+  </si>
+  <si>
+    <t>8984020001150007173</t>
+  </si>
+  <si>
+    <t>8984020001150007150</t>
+  </si>
+  <si>
+    <t>8984020001150007127</t>
+  </si>
+  <si>
+    <t>8984020001150007130</t>
+  </si>
+  <si>
+    <t>8984020001150007079</t>
+  </si>
+  <si>
+    <t>8984020001150007120</t>
+  </si>
+  <si>
+    <t>8984020001150007126</t>
+  </si>
+  <si>
+    <t>8984020001150007174</t>
+  </si>
+  <si>
+    <t>8984020001150007139</t>
+  </si>
+  <si>
+    <t>8984020001150007133</t>
+  </si>
+  <si>
+    <t>8984020001150007163</t>
+  </si>
+  <si>
+    <t>8984020001150007114</t>
+  </si>
+  <si>
+    <t>8984020001150007145</t>
+  </si>
+  <si>
+    <t>8984020001150007172</t>
+  </si>
+  <si>
+    <t>8984020001150007135</t>
+  </si>
+  <si>
+    <t>8984020001150007136</t>
+  </si>
+  <si>
+    <t>8984020001150007177</t>
+  </si>
+  <si>
+    <t>8984020001150007124</t>
+  </si>
+  <si>
+    <t>8984020001150007148</t>
+  </si>
+  <si>
+    <t>8984020001150007169</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,10 +1043,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,410 +1471,410 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
